--- a/tut05/output/0401EE10.xlsx
+++ b/tut05/output/0401EE10.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.040816326530612</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.454545454545455</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.195652173913043</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.434782608695652</v>
+        <v>9.43</v>
       </c>
       <c r="F6" t="n">
-        <v>9.23076923076923</v>
+        <v>9.23</v>
       </c>
       <c r="G6" t="n">
         <v>9.15</v>
       </c>
       <c r="H6" t="n">
-        <v>9.534883720930232</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>8.947368421052632</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.040816326530612</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.763440860215054</v>
+        <v>8.76</v>
       </c>
       <c r="D8" t="n">
-        <v>8.906474820143885</v>
+        <v>8.91</v>
       </c>
       <c r="E8" t="n">
-        <v>9.037837837837838</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>9.071428571428571</v>
+        <v>9.07</v>
       </c>
       <c r="G8" t="n">
-        <v>9.083333333333334</v>
+        <v>9.08</v>
       </c>
       <c r="H8" t="n">
-        <v>9.146579804560261</v>
+        <v>9.15</v>
       </c>
       <c r="I8" t="n">
-        <v>9.12463768115942</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>
